--- a/biology/Virologie/Orthoreovirus/Orthoreovirus.xlsx
+++ b/biology/Virologie/Orthoreovirus/Orthoreovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthoreovirus est un genre de virus de la famille des Reoviridae (sous-famille des Spinareovirinae (en)). Il appartient au groupe III des virus à ARN double brin.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des virus non enveloppés, entourés d'une capside icosaédrique constituée de deux couches protéiques. Leur génome est un ARN double-brin segmenté souvent en dix, qui code trois types de protéines, dites λ, μ et σ.
 La réplication a lieu dans le cytoplasme des cellules hôtes.
@@ -543,7 +557,9 @@
           <t>Pathogénécité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ils infectent les vertébrés.
 Chez les êtres humains, ils n'entraînent habituellement pas de symptômes.
